--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\OneDrive\바탕 화면\학업\ExcelToTabText (2)\ExcelToTabText\ExcelToTabText\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA83C8A-FD74-48F1-A6E7-B155838B60DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F2BB6-DBD1-479E-B574-DCFA39869491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
   <si>
     <t>포탄</t>
   </si>
@@ -429,10 +429,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TankShell_Blue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Magent</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -446,6 +442,14 @@
   </si>
   <si>
     <t>ZombieAttack01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tracer_GoldFire_Small_Projectile</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaDamageLightning</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +826,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -830,7 +834,7 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="10" width="21.88671875" customWidth="1"/>
@@ -863,7 +867,7 @@
         <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>61</v>
@@ -886,7 +890,7 @@
         <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -924,7 +928,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -962,7 +966,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1000,7 +1004,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1038,7 +1042,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -1266,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1304,7 +1308,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1342,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1380,7 +1384,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1418,7 +1422,7 @@
         <v>75</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -1643,7 +1647,7 @@
         <v>1041</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>1</v>
@@ -1833,7 +1837,7 @@
         <v>1061</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>1</v>
@@ -2593,7 +2597,7 @@
         <v>2001</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>1</v>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F2BB6-DBD1-479E-B574-DCFA39869491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698D3E7-3FB7-41DD-A76C-40D4EB29D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -825,8 +825,8 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3">
         <v>7</v>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="3">
         <v>7</v>
@@ -978,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3">
         <v>7</v>
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3">
         <v>7</v>
@@ -1054,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="5">
         <v>7</v>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698D3E7-3FB7-41DD-A76C-40D4EB29D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F99842-F058-408A-A4D2-698B7920E251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="3012" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="95">
   <si>
     <t>포탄</t>
   </si>
@@ -112,24 +112,6 @@
     <t>공격력 증가 마지막</t>
   </si>
   <si>
-    <t>치명타 증가</t>
-  </si>
-  <si>
-    <t>CriticalUp</t>
-  </si>
-  <si>
-    <t>치명타 증가 레벨 2</t>
-  </si>
-  <si>
-    <t>치명타 증가 레벨 3</t>
-  </si>
-  <si>
-    <t>치명타 증가 레벨 4</t>
-  </si>
-  <si>
-    <t>치명타 증가 마지막</t>
-  </si>
-  <si>
     <t>최대체력 증가</t>
   </si>
   <si>
@@ -194,39 +176,39 @@
   </si>
   <si>
     <t>SkillId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SkillLocalName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CastSound</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>StartCreateCount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ScaleIncRate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DamgaIncRate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Damage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CoolTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -242,27 +224,27 @@
       </rPr>
       <t>설명</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PrefabName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Tank_Red</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Mine_Yel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>전기 장판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>전기 장판 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -313,7 +295,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -364,7 +346,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -418,50 +400,352 @@
       </rPr>
       <t>마지막</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ElectroField</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TankShell</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Magent</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AttackUp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ProjectileSpeed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ZombieAttack01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Tracer_GoldFire_Small_Projectile</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AreaDamageLightning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillImage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득량 증가</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Exp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가 레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가 레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Exp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마지막</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpGetRateUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active_TankShell</t>
+  </si>
+  <si>
+    <t>Active_TankShell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active_SubTank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active_LightingArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active_Mine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive_Magnet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive_PowerUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive_ExpRateUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive_HeartMaxUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive_SpeedUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,6 +803,13 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -570,39 +861,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +1129,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -838,48 +1146,55 @@
     <col min="6" max="6" width="21.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" customWidth="1"/>
+    <col min="11" max="12" width="24.88671875" customWidth="1"/>
+    <col min="14" max="14" width="22.5546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -887,10 +1202,10 @@
         <v>1001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -913,11 +1228,17 @@
       <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -925,10 +1246,10 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -949,13 +1270,19 @@
         <v>0.2</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,10 +1290,10 @@
         <v>1003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -987,13 +1314,19 @@
         <v>0.2</v>
       </c>
       <c r="K4" s="3">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1001,10 +1334,10 @@
         <v>1004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1025,13 +1358,19 @@
         <v>0.2</v>
       </c>
       <c r="K5" s="3">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1039,10 +1378,10 @@
         <v>1005</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -1063,13 +1402,19 @@
         <v>0.2</v>
       </c>
       <c r="K6" s="5">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1103,11 +1448,17 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1141,11 +1492,17 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1513,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1179,11 +1536,17 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1217,11 +1580,17 @@
       <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1601,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -1255,22 +1624,28 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3">
         <v>1021</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1293,22 +1668,28 @@
       <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3">
         <v>1022</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1331,22 +1712,28 @@
       <c r="K13" s="3">
         <v>2</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3">
         <v>1023</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1369,22 +1756,28 @@
       <c r="K14" s="3">
         <v>3</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3">
         <v>1024</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1407,22 +1800,28 @@
       <c r="K15" s="3">
         <v>4</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5">
         <v>1025</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -1445,11 +1844,17 @@
       <c r="K16" s="5">
         <v>5</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
@@ -1483,11 +1888,17 @@
       <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1909,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
@@ -1521,11 +1932,17 @@
       <c r="K18" s="3">
         <v>2</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4">
         <v>3</v>
@@ -1559,11 +1976,17 @@
       <c r="K19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1574,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4">
         <v>3</v>
@@ -1597,11 +2020,17 @@
       <c r="K20" s="3">
         <v>4</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -1612,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6">
         <v>3</v>
@@ -1635,11 +2064,17 @@
       <c r="K21" s="5">
         <v>5</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1647,19 +2082,19 @@
         <v>1041</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>-1</v>
@@ -1673,11 +2108,17 @@
       <c r="K22" s="3">
         <v>1</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1691,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-1</v>
@@ -1711,11 +2152,17 @@
       <c r="K23" s="3">
         <v>1</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1729,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>-1</v>
@@ -1749,11 +2196,17 @@
       <c r="K24" s="3">
         <v>1</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1767,13 +2220,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>-1</v>
@@ -1787,11 +2240,17 @@
       <c r="K25" s="3">
         <v>1</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -1805,13 +2264,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
         <v>-1</v>
@@ -1825,11 +2284,17 @@
       <c r="K26" s="5">
         <v>1</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
@@ -1837,19 +2302,19 @@
         <v>1061</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-1</v>
@@ -1863,11 +2328,17 @@
       <c r="K27" s="3">
         <v>1</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1881,13 +2352,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>-1</v>
@@ -1901,11 +2372,17 @@
       <c r="K28" s="3">
         <v>1</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1919,13 +2396,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>-1</v>
@@ -1939,11 +2416,17 @@
       <c r="K29" s="3">
         <v>1</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L29" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1957,13 +2440,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <v>-1</v>
@@ -1977,11 +2460,17 @@
       <c r="K30" s="3">
         <v>1</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -1995,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8">
         <v>-1</v>
@@ -2015,31 +2504,37 @@
       <c r="K31" s="8">
         <v>1</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
+      <c r="L31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="B32" s="3">
         <v>1071</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-1</v>
@@ -2053,31 +2548,37 @@
       <c r="K32" s="3">
         <v>1</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
+      <c r="L32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="3">
         <v>1072</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-1</v>
@@ -2091,31 +2592,37 @@
       <c r="K33" s="3">
         <v>1</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
+      <c r="L33" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="B34" s="3">
         <v>1073</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>-1</v>
@@ -2129,31 +2636,37 @@
       <c r="K34" s="3">
         <v>1</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
+      <c r="L34" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="B35" s="3">
         <v>1074</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-1</v>
@@ -2167,31 +2680,37 @@
       <c r="K35" s="3">
         <v>1</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
+      <c r="L35" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B36" s="5">
         <v>1075</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G36" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H36" s="8">
         <v>-1</v>
@@ -2205,31 +2724,37 @@
       <c r="K36" s="8">
         <v>1</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L36" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3">
         <v>1081</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <v>-1</v>
@@ -2243,31 +2768,37 @@
       <c r="K37" s="3">
         <v>1</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L37" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3">
         <v>1082</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
         <v>-1</v>
@@ -2281,31 +2812,37 @@
       <c r="K38" s="3">
         <v>1</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L38" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3">
         <v>1083</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <v>-1</v>
@@ -2319,31 +2856,37 @@
       <c r="K39" s="3">
         <v>1</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L39" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3">
         <v>1084</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
         <v>-1</v>
@@ -2357,31 +2900,37 @@
       <c r="K40" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L40" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B41" s="5">
         <v>1085</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G41" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H41" s="8">
         <v>-1</v>
@@ -2395,31 +2944,37 @@
       <c r="K41" s="8">
         <v>1</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L41" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3">
         <v>1091</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>-1</v>
@@ -2433,31 +2988,37 @@
       <c r="K42" s="3">
         <v>1</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L42" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3">
         <v>1092</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>-1</v>
@@ -2471,31 +3032,37 @@
       <c r="K43" s="3">
         <v>1</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L43" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3">
         <v>1093</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>-1</v>
@@ -2509,31 +3076,37 @@
       <c r="K44" s="3">
         <v>1</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L44" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3">
         <v>1094</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>-1</v>
@@ -2547,31 +3120,37 @@
       <c r="K45" s="3">
         <v>1</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L45" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B46" s="5">
         <v>1095</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G46" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H46" s="8">
         <v>-1</v>
@@ -2585,19 +3164,25 @@
       <c r="K46" s="8">
         <v>1</v>
       </c>
-      <c r="L46" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L46" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3">
         <v>2001</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>1</v>
@@ -2623,19 +3208,22 @@
       <c r="K47" s="3">
         <v>1</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3">
         <v>2002</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>1</v>
@@ -2661,19 +3249,22 @@
       <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B49" s="3">
         <v>3001</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>1</v>
@@ -2699,19 +3290,22 @@
       <c r="K49" s="3">
         <v>1</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3">
         <v>4001</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>1</v>
@@ -2737,19 +3331,22 @@
       <c r="K50" s="3">
         <v>1</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>4002</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>1</v>
@@ -2775,12 +3372,15 @@
       <c r="K51" s="3">
         <v>1</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1093114D-AED2-4B95-921E-FED85EDD3E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A31A77-9308-4FDE-84A5-146CD7AF485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="110">
   <si>
     <t>포탄</t>
   </si>
@@ -727,6 +727,65 @@
   </si>
   <si>
     <t>Passive_SpeedUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubTank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLocalDesc</t>
+  </si>
+  <si>
+    <t>SkillLocalDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankShellDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubTankDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectroFieldDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagentDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackUpDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpGetRateUpDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpUpDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUpDesc</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -911,6 +970,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,28 +1192,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="N38" sqref="N38"/>
+      <selection pane="topRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="12" width="24.85546875" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="13" width="24.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1161,41 +1223,44 @@
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1205,41 +1270,44 @@
       <c r="C2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
       <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
       <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
         <v>3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0.2</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
       <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1249,41 +1317,44 @@
       <c r="C3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
       <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
         <v>100</v>
       </c>
-      <c r="G3" s="3">
-        <v>10</v>
-      </c>
       <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0.2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,41 +1364,44 @@
       <c r="C4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
       <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
         <v>100</v>
       </c>
-      <c r="G4" s="3">
-        <v>10</v>
-      </c>
       <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0.2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1337,41 +1411,44 @@
       <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
       <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="3">
-        <v>10</v>
-      </c>
       <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>7</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>0.2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1381,41 +1458,44 @@
       <c r="C6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
       <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
         <v>100</v>
       </c>
-      <c r="G6" s="5">
-        <v>10</v>
-      </c>
       <c r="H6" s="5">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>0.2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1423,43 +1503,46 @@
         <v>1011</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
       <c r="F7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
         <v>10</v>
       </c>
       <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
         <v>-1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>0.2</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
       <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1470,40 +1553,43 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
       <c r="F8" s="4">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
         <v>10</v>
       </c>
       <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3">
         <v>-1</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>0.2</v>
       </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
       <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1514,40 +1600,43 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
       <c r="F9" s="4">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
         <v>10</v>
       </c>
       <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
         <v>-1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>0.2</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
       <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1558,40 +1647,43 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
       <c r="F10" s="4">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
         <v>10</v>
       </c>
       <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>0.2</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
       <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1602,40 +1694,43 @@
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
       <c r="F11" s="6">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
         <v>10</v>
       </c>
       <c r="H11" s="5">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
         <v>-1</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>0.2</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
       <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
@@ -1645,41 +1740,44 @@
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
       <c r="F12" s="4">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
         <v>10</v>
       </c>
       <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
@@ -1689,41 +1787,44 @@
       <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
       <c r="F13" s="4">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
         <v>10</v>
       </c>
       <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
       <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>0.2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>2</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="13" t="s">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
@@ -1733,41 +1834,44 @@
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
       <c r="F14" s="4">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
         <v>10</v>
       </c>
       <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>0.2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="13" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>67</v>
       </c>
@@ -1777,41 +1881,44 @@
       <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
       <c r="F15" s="4">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
         <v>10</v>
       </c>
       <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>0.2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="13" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -1821,41 +1928,44 @@
       <c r="C16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
       <c r="F16" s="6">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
         <v>10</v>
       </c>
       <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
         <v>8</v>
       </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
       <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
         <v>0.25</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>5</v>
       </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="13" t="s">
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1863,43 +1973,46 @@
         <v>1031</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="4">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>10</v>
       </c>
       <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
         <v>1.5</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>0.2</v>
       </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
       <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1909,41 +2022,44 @@
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="4">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>10</v>
       </c>
       <c r="H18" s="3">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3">
         <v>1.5</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>0.2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="13" t="s">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1953,41 +2069,44 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="4">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>10</v>
       </c>
       <c r="H19" s="3">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3">
         <v>1.5</v>
       </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
       <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>0.2</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="13" t="s">
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1997,41 +2116,44 @@
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="4">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>10</v>
       </c>
       <c r="H20" s="3">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3">
         <v>1.5</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>0.2</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="13" t="s">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -2041,41 +2163,44 @@
       <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <v>3</v>
       </c>
-      <c r="F21" s="6">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <v>10</v>
       </c>
       <c r="H21" s="5">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
         <v>1.5</v>
       </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
       <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
         <v>0.2</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>5</v>
       </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="13" t="s">
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2085,38 +2210,39 @@
       <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
         <v>10</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>0.2</v>
       </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
       <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2126,38 +2252,39 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
         <v>10</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>0.2</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2167,38 +2294,39 @@
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
         <v>10</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>0.2</v>
       </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
       <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -2208,38 +2336,39 @@
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
         <v>10</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
       </c>
       <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <v>0.2</v>
       </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
       <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -2249,34 +2378,35 @@
       <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
         <v>10</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>0.2</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2288,22 +2418,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F814AD-6B6B-4727-B97C-9B452EABCD6B}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -2313,14 +2443,17 @@
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2330,14 +2463,17 @@
       <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -2347,14 +2483,17 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2364,14 +2503,17 @@
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2381,14 +2523,17 @@
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2398,14 +2543,17 @@
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2415,14 +2563,17 @@
       <c r="C7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3">
         <v>0.1</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -2432,14 +2583,17 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.2</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -2449,14 +2603,17 @@
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.3</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -2466,14 +2623,17 @@
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.4</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -2483,14 +2643,17 @@
       <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="7">
         <v>0.5</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -2500,14 +2663,17 @@
       <c r="C12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.1</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>80</v>
       </c>
@@ -2517,14 +2683,17 @@
       <c r="C13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.2</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>79</v>
       </c>
@@ -2534,14 +2703,17 @@
       <c r="C14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="3">
         <v>0.3</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
@@ -2551,14 +2723,17 @@
       <c r="C15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="3">
         <v>0.4</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>82</v>
       </c>
@@ -2568,14 +2743,17 @@
       <c r="C16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="7">
         <v>0.5</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -2583,16 +2761,19 @@
         <v>10031</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3">
+        <v>106</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="3">
         <v>0.1</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -2602,14 +2783,17 @@
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="3">
         <v>0.2</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -2619,14 +2803,17 @@
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="3">
         <v>0.3</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -2636,14 +2823,17 @@
       <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="3">
         <v>0.4</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -2653,14 +2843,17 @@
       <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7">
         <v>0.5</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2668,16 +2861,19 @@
         <v>10041</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3">
+        <v>108</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="3">
         <v>0.1</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -2687,14 +2883,17 @@
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="3">
         <v>0.2</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -2704,14 +2903,17 @@
       <c r="C24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="3">
         <v>0.3</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -2721,14 +2923,17 @@
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="3">
         <v>0.4</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -2738,10 +2943,13 @@
       <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="7">
         <v>0.5</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>94</v>
       </c>
     </row>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A31A77-9308-4FDE-84A5-146CD7AF485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A7ABA3-6FD1-4E7B-9364-4588D5467032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -1197,23 +1197,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+      <selection pane="topRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="11" width="21.88671875" customWidth="1"/>
-    <col min="12" max="13" width="24.88671875" customWidth="1"/>
-    <col min="15" max="15" width="22.5546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="13" width="24.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>0.2</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0.2</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0.2</v>
       </c>
       <c r="L10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>0.2</v>
       </c>
       <c r="L11" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>67</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -2424,16 +2424,16 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>80</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>79</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>82</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A7ABA3-6FD1-4E7B-9364-4588D5467032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F93D0BC-3255-446B-B548-BE1621FE4677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="O23" sqref="O23"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>1</v>
@@ -1956,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>1</v>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F93D0BC-3255-446B-B548-BE1621FE4677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46923D21-6E0E-4A6C-854C-C8BBECE15C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1590" windowWidth="22035" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="112">
   <si>
     <t>포탄</t>
   </si>
@@ -786,6 +786,14 @@
   </si>
   <si>
     <t>SpeedUpDesc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffectPrefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion_Small</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,6 +981,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,7 +1208,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="M12" sqref="M12:M16"/>
+      <selection pane="topRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1220,8 @@
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="13" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
     <col min="15" max="15" width="22.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1251,10 +1263,10 @@
         <v>54</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>77</v>
@@ -1297,12 +1309,10 @@
       <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="13" t="s">
         <v>86</v>
       </c>
@@ -1344,12 +1354,10 @@
       <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="12" t="s">
         <v>85</v>
       </c>
@@ -1391,12 +1399,10 @@
       <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3"/>
       <c r="O4" s="12" t="s">
         <v>85</v>
       </c>
@@ -1438,12 +1444,10 @@
       <c r="L5" s="3">
         <v>4</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="12" t="s">
         <v>85</v>
       </c>
@@ -1485,13 +1489,11 @@
       <c r="L6" s="5">
         <v>5</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="M6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="18" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1515,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
@@ -1532,12 +1534,10 @@
       <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="13" t="s">
         <v>87</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
@@ -1579,12 +1579,10 @@
       <c r="L8" s="3">
         <v>2</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="13" t="s">
         <v>87</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
@@ -1626,12 +1624,10 @@
       <c r="L9" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3"/>
       <c r="O9" s="13" t="s">
         <v>87</v>
       </c>
@@ -1656,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3">
         <v>10</v>
@@ -1673,12 +1669,10 @@
       <c r="L10" s="3">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="13" t="s">
         <v>87</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5">
         <v>10</v>
@@ -1720,13 +1714,11 @@
       <c r="L11" s="5">
         <v>5</v>
       </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="13" t="s">
+      <c r="M11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1750,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -1762,17 +1754,15 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="13" t="s">
         <v>88</v>
       </c>
@@ -1797,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
@@ -1814,12 +1804,10 @@
       <c r="L13" s="3">
         <v>2</v>
       </c>
-      <c r="M13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="13" t="s">
         <v>88</v>
       </c>
@@ -1844,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
@@ -1861,12 +1849,10 @@
       <c r="L14" s="3">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3"/>
       <c r="O14" s="13" t="s">
         <v>88</v>
       </c>
@@ -1891,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3">
         <v>10</v>
@@ -1908,12 +1894,10 @@
       <c r="L15" s="3">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3"/>
       <c r="O15" s="13" t="s">
         <v>88</v>
       </c>
@@ -1938,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5">
         <v>10</v>
@@ -1950,18 +1934,16 @@
         <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="5">
         <v>5</v>
       </c>
-      <c r="M16" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="13" t="s">
+      <c r="M16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1985,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
@@ -2002,11 +1984,11 @@
       <c r="L17" s="3">
         <v>1</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
+      <c r="M17" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="O17" s="13" t="s">
         <v>89</v>
@@ -2032,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
         <v>10</v>
@@ -2049,11 +2031,11 @@
       <c r="L18" s="3">
         <v>2</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="O18" s="13" t="s">
         <v>89</v>
@@ -2079,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H19" s="3">
         <v>10</v>
@@ -2096,11 +2078,11 @@
       <c r="L19" s="3">
         <v>3</v>
       </c>
-      <c r="M19" s="3">
-        <v>0</v>
+      <c r="M19" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="O19" s="13" t="s">
         <v>89</v>
@@ -2126,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>10</v>
@@ -2143,11 +2125,11 @@
       <c r="L20" s="3">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="O20" s="13" t="s">
         <v>89</v>
@@ -2173,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="6">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H21" s="5">
         <v>10</v>
@@ -2190,13 +2172,13 @@
       <c r="L21" s="5">
         <v>5</v>
       </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21" s="13" t="s">
+      <c r="M21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2235,12 +2217,10 @@
       <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -2277,12 +2257,10 @@
       <c r="L23" s="3">
         <v>1</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -2319,12 +2297,10 @@
       <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -2361,12 +2337,10 @@
       <c r="L25" s="3">
         <v>1</v>
       </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -2403,12 +2377,10 @@
       <c r="L26" s="3">
         <v>1</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="M26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46923D21-6E0E-4A6C-854C-C8BBECE15C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C991052-5B8D-451E-9D01-47A095B9258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1590" windowWidth="22035" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1590" windowWidth="22035" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -1205,10 +1205,10 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="H31" sqref="H31"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1964,7 +1964,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4">
         <v>200</v>
@@ -2011,7 +2011,7 @@
         <v>63</v>
       </c>
       <c r="F18" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4">
         <v>200</v>
@@ -2058,7 +2058,7 @@
         <v>63</v>
       </c>
       <c r="F19" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="4">
         <v>200</v>
@@ -2105,7 +2105,7 @@
         <v>63</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="4">
         <v>200</v>
@@ -2152,7 +2152,7 @@
         <v>63</v>
       </c>
       <c r="F21" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="6">
         <v>200</v>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F814AD-6B6B-4727-B97C-9B452EABCD6B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2439,7 +2439,7 @@
         <v>103</v>
       </c>
       <c r="E2" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>90</v>
@@ -2459,7 +2459,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>90</v>
@@ -2479,7 +2479,7 @@
         <v>103</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>90</v>
@@ -2499,7 +2499,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>90</v>
@@ -2518,8 +2518,8 @@
       <c r="D6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="5">
-        <v>0.5</v>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>90</v>
@@ -2539,7 +2539,7 @@
         <v>104</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>91</v>
@@ -2559,7 +2559,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>91</v>
@@ -2579,7 +2579,7 @@
         <v>104</v>
       </c>
       <c r="E9" s="3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>91</v>
@@ -2599,7 +2599,7 @@
         <v>104</v>
       </c>
       <c r="E10" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>91</v>
@@ -2619,7 +2619,7 @@
         <v>104</v>
       </c>
       <c r="E11" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>91</v>
@@ -2639,7 +2639,7 @@
         <v>105</v>
       </c>
       <c r="E12" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>92</v>
@@ -2659,7 +2659,7 @@
         <v>105</v>
       </c>
       <c r="E13" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>92</v>
@@ -2679,7 +2679,7 @@
         <v>105</v>
       </c>
       <c r="E14" s="3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>92</v>
@@ -2699,7 +2699,7 @@
         <v>105</v>
       </c>
       <c r="E15" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>92</v>
@@ -2719,7 +2719,7 @@
         <v>105</v>
       </c>
       <c r="E16" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>92</v>
@@ -2739,7 +2739,7 @@
         <v>107</v>
       </c>
       <c r="E17" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>93</v>
@@ -2759,7 +2759,7 @@
         <v>107</v>
       </c>
       <c r="E18" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>93</v>
@@ -2779,7 +2779,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>93</v>
@@ -2799,7 +2799,7 @@
         <v>107</v>
       </c>
       <c r="E20" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>93</v>
@@ -2819,7 +2819,7 @@
         <v>107</v>
       </c>
       <c r="E21" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>93</v>
@@ -2839,7 +2839,7 @@
         <v>109</v>
       </c>
       <c r="E22" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>94</v>
@@ -2859,7 +2859,7 @@
         <v>109</v>
       </c>
       <c r="E23" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>94</v>
@@ -2879,7 +2879,7 @@
         <v>109</v>
       </c>
       <c r="E24" s="3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>94</v>
@@ -2899,7 +2899,7 @@
         <v>109</v>
       </c>
       <c r="E25" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>94</v>
@@ -2919,7 +2919,7 @@
         <v>109</v>
       </c>
       <c r="E26" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>94</v>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C991052-5B8D-451E-9D01-47A095B9258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574F5063-6FD2-4381-8DFF-2288E935D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1590" windowWidth="22035" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="5145" windowWidth="22035" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -1205,10 +1205,10 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17:F21"/>
+      <selection pane="topRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3">
         <v>10</v>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H3" s="3">
         <v>10</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3">
         <v>10</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
@@ -1471,8 +1471,8 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
-        <v>100</v>
+      <c r="G6" s="17">
+        <v>80</v>
       </c>
       <c r="H6" s="5">
         <v>10</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3">
         <v>10</v>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3">
         <v>10</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5">
         <v>10</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>10</v>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <v>10</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H16" s="5">
         <v>10</v>
@@ -1967,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="4">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H18" s="3">
         <v>10</v>
@@ -2061,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="4">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H19" s="3">
         <v>10</v>
@@ -2108,7 +2108,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="4">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H20" s="3">
         <v>10</v>
@@ -2155,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="6">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H21" s="5">
         <v>10</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>10</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3">
         <v>10</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H26" s="3">
         <v>10</v>
@@ -2392,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F814AD-6B6B-4727-B97C-9B452EABCD6B}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574F5063-6FD2-4381-8DFF-2288E935D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F005510-1DDB-4608-822A-AF802237AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="5145" windowWidth="22035" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="112">
   <si>
     <t>포탄</t>
   </si>
@@ -197,10 +197,6 @@
   </si>
   <si>
     <t>Duration</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamgaIncRate</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -794,6 +790,10 @@
   </si>
   <si>
     <t>Explosion_Small</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageIncRate</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1208,26 +1208,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="H37" sqref="H37"/>
+      <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="7" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -1236,25 +1234,25 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>55</v>
@@ -1266,13 +1264,13 @@
         <v>53</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1280,13 +1278,13 @@
         <v>1001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1294,8 +1292,8 @@
       <c r="G2" s="4">
         <v>80</v>
       </c>
-      <c r="H2" s="3">
-        <v>10</v>
+      <c r="H2" s="4">
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <v>3</v>
@@ -1314,10 +1312,10 @@
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1325,22 +1323,22 @@
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>80</v>
-      </c>
-      <c r="H3" s="3">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -1359,10 +1357,10 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1370,22 +1368,22 @@
         <v>1003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>80</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1404,10 +1402,10 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1415,22 +1413,22 @@
         <v>1004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>80</v>
-      </c>
-      <c r="H5" s="3">
-        <v>10</v>
+        <v>110</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -1449,10 +1447,10 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1460,22 +1458,22 @@
         <v>1005</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="G6" s="17">
-        <v>80</v>
-      </c>
-      <c r="H6" s="5">
-        <v>10</v>
+        <v>120</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -1494,10 +1492,10 @@
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1505,13 +1503,13 @@
         <v>1011</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1519,8 +1517,8 @@
       <c r="G7" s="4">
         <v>30</v>
       </c>
-      <c r="H7" s="3">
-        <v>10</v>
+      <c r="H7" s="4">
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>-1</v>
@@ -1539,10 +1537,10 @@
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1553,19 +1551,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>-1</v>
@@ -1584,10 +1582,10 @@
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1598,19 +1596,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>-1</v>
@@ -1629,10 +1627,10 @@
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1643,19 +1641,19 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>-1</v>
@@ -1674,10 +1672,10 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1688,19 +1686,19 @@
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <v>-1</v>
@@ -1719,24 +1717,24 @@
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3">
         <v>1021</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1744,8 +1742,8 @@
       <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="H12" s="3">
-        <v>10</v>
+      <c r="H12" s="4">
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>3</v>
@@ -1764,33 +1762,33 @@
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3">
         <v>1022</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <v>3</v>
@@ -1809,33 +1807,33 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3">
         <v>1023</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>5</v>
@@ -1854,33 +1852,33 @@
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>1024</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>5</v>
@@ -1899,33 +1897,33 @@
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5">
         <v>1025</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
       </c>
       <c r="G16" s="6">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
       </c>
       <c r="I16" s="5">
         <v>8</v>
@@ -1944,10 +1942,10 @@
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1955,13 +1953,13 @@
         <v>1031</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
@@ -1969,8 +1967,8 @@
       <c r="G17" s="4">
         <v>130</v>
       </c>
-      <c r="H17" s="3">
-        <v>10</v>
+      <c r="H17" s="4">
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>1.5</v>
@@ -1988,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -2005,19 +2003,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4">
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>130</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10</v>
+        <v>135</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>1.5</v>
@@ -2035,13 +2033,13 @@
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2052,19 +2050,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="4">
         <v>5</v>
       </c>
       <c r="G19" s="4">
-        <v>130</v>
-      </c>
-      <c r="H19" s="3">
-        <v>10</v>
+        <v>140</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
       </c>
       <c r="I19" s="3">
         <v>1.5</v>
@@ -2082,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -2099,19 +2097,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" s="4">
-        <v>130</v>
-      </c>
-      <c r="H20" s="3">
-        <v>10</v>
+        <v>145</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>1.5</v>
@@ -2129,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -2146,19 +2144,19 @@
         <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="6">
         <v>5</v>
       </c>
       <c r="G21" s="6">
-        <v>130</v>
-      </c>
-      <c r="H21" s="5">
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
       </c>
       <c r="I21" s="5">
         <v>1.5</v>
@@ -2176,13 +2174,13 @@
         <v>1</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2190,12 +2188,10 @@
         <v>2001</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="3">
         <v>1</v>
       </c>
@@ -2203,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -2222,7 +2218,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2233,9 +2229,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="3">
         <v>1</v>
       </c>
@@ -2243,7 +2237,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -2262,7 +2256,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2273,9 +2267,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="F24" s="3">
         <v>1</v>
       </c>
@@ -2283,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -2302,7 +2294,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -2313,9 +2305,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="3">
         <v>1</v>
       </c>
@@ -2323,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
@@ -2342,7 +2332,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -2353,9 +2343,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="3">
         <v>1</v>
       </c>
@@ -2363,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -2393,21 +2381,21 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -2416,16 +2404,16 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2433,19 +2421,19 @@
         <v>10001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3">
         <v>0.2</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -2456,16 +2444,16 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="3">
         <v>0.4</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2476,16 +2464,16 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="3">
         <v>0.6</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -2496,16 +2484,16 @@
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3">
         <v>0.8</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2516,16 +2504,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2533,19 +2521,19 @@
         <v>10011</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3">
         <v>0.2</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -2556,16 +2544,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="3">
         <v>0.4</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -2576,16 +2564,16 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3">
         <v>0.6</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -2596,16 +2584,16 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3">
         <v>0.8</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -2616,116 +2604,116 @@
         <v>25</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3">
         <v>10021</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
         <v>0.2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3">
         <v>10022</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3">
         <v>0.4</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3">
         <v>10023</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3">
         <v>0.6</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3">
         <v>10024</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="3">
         <v>0.8</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="7">
         <v>10025</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -2733,19 +2721,19 @@
         <v>10031</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="E17" s="3">
         <v>0.2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -2756,16 +2744,16 @@
         <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="3">
         <v>0.4</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -2776,16 +2764,16 @@
         <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="3">
         <v>0.6</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -2796,16 +2784,16 @@
         <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="3">
         <v>0.8</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -2816,16 +2804,16 @@
         <v>31</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2833,19 +2821,19 @@
         <v>10041</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="E22" s="3">
         <v>0.2</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -2856,16 +2844,16 @@
         <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="3">
         <v>0.4</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -2876,16 +2864,16 @@
         <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="3">
         <v>0.6</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -2896,16 +2884,16 @@
         <v>37</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="3">
         <v>0.8</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -2916,13 +2904,13 @@
         <v>37</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F005510-1DDB-4608-822A-AF802237AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE74FCA6-2CE9-4041-B957-C3621BE0C189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="114">
   <si>
     <t>포탄</t>
   </si>
@@ -794,6 +794,14 @@
   </si>
   <si>
     <t>DamageIncRate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetectRange</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1203,12 +1211,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="H23" sqref="H23"/>
+      <selection pane="topRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1217,13 +1225,13 @@
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="4" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="7" max="11" width="21.88671875" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" customWidth="1"/>
-    <col min="15" max="15" width="22.5546875" style="12" customWidth="1"/>
+    <col min="7" max="13" width="21.88671875" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1249,28 +1257,34 @@
         <v>111</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1295,27 +1309,33 @@
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K2" s="3">
         <v>3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3">
         <v>7</v>
       </c>
-      <c r="K2" s="3">
+      <c r="M2" s="3">
         <v>0.2</v>
       </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1340,27 +1360,33 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <v>0.2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,27 +1411,33 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="3">
+      <c r="M4" s="3">
         <v>0.2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1430,27 +1462,33 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>7</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <v>0.2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="N5" s="3">
         <v>4</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1475,27 +1513,33 @@
       <c r="H6" s="17">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="K6" s="5">
         <v>3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="L6" s="5">
         <v>7</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>0.2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="N6" s="5">
         <v>5</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1520,27 +1564,33 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
         <v>-1</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <v>0.2</v>
       </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="13" t="s">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1565,27 +1615,33 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
         <v>-1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.2</v>
       </c>
       <c r="L8" s="3">
         <v>2</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="13" t="s">
+      <c r="M8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1610,27 +1666,33 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
         <v>-1</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>0.2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1655,27 +1717,33 @@
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
         <v>-1</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>0.2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1700,27 +1768,33 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>-1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="L11" s="5">
         <v>2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="M11" s="5">
         <v>0.2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="N11" s="5">
         <v>5</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>63</v>
       </c>
@@ -1745,27 +1819,33 @@
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="4">
+        <v>3</v>
       </c>
       <c r="K12" s="3">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>0.2</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="13" t="s">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>64</v>
       </c>
@@ -1790,27 +1870,33 @@
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>3</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
+      <c r="J13" s="4">
+        <v>3</v>
       </c>
       <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>0.2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="N13" s="3">
         <v>2</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
@@ -1835,27 +1921,33 @@
       <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>0.2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>3</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>66</v>
       </c>
@@ -1880,27 +1972,33 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>0.2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>4</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
@@ -1925,27 +2023,33 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5">
         <v>8</v>
       </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
         <v>0.2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="N16" s="5">
         <v>5</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1970,29 +2074,35 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
         <v>1.5</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>0.2</v>
       </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="Q17" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -2017,29 +2127,35 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
         <v>1.5</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>0.2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="Q18" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -2064,29 +2180,35 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
         <v>1.5</v>
       </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>0.2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="N19" s="3">
         <v>3</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="Q19" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -2111,29 +2233,35 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
         <v>1.5</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>0.2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="Q20" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -2158,29 +2286,35 @@
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
         <v>1.5</v>
       </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
         <v>0.2</v>
       </c>
-      <c r="L21" s="5">
+      <c r="N21" s="5">
         <v>5</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="Q21" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2202,23 +2336,29 @@
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>0.2</v>
       </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2240,23 +2380,29 @@
         <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>0.2</v>
       </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2278,23 +2424,29 @@
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>0.2</v>
       </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -2310,29 +2462,35 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
         <v>0.2</v>
       </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -2345,30 +2503,36 @@
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G26" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>0.2</v>
       </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE74FCA6-2CE9-4041-B957-C3621BE0C189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81739FF2-3B01-4715-A464-45FE5A6CB2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
   <si>
     <t>포탄</t>
   </si>
@@ -802,6 +802,10 @@
   </si>
   <si>
     <t>AttackRange</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX_TankCannonShot</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1214,9 +1218,9 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="J25" sqref="J25"/>
+      <selection pane="topRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1231,7 @@
     <col min="5" max="5" width="30.109375" customWidth="1"/>
     <col min="7" max="13" width="21.88671875" customWidth="1"/>
     <col min="14" max="14" width="24.88671875" customWidth="1"/>
+    <col min="15" max="15" width="23.21875" customWidth="1"/>
     <col min="16" max="16" width="25.33203125" customWidth="1"/>
     <col min="17" max="17" width="22.5546875" style="12" customWidth="1"/>
   </cols>
@@ -1328,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="13" t="s">
@@ -1379,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="12" t="s">
@@ -1430,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="12" t="s">
@@ -1481,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="12" t="s">
@@ -1531,8 +1536,8 @@
       <c r="N6" s="5">
         <v>5</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>1</v>
+      <c r="O6" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="18" t="s">

--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/SkillDataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Documents\GitHub\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81739FF2-3B01-4715-A464-45FE5A6CB2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6DEBD0-FB3E-4E34-AD66-6EB589F9C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1650" windowWidth="25485" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableSkill" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="120">
   <si>
     <t>포탄</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>포탄 레벨2</t>
@@ -806,6 +803,28 @@
   </si>
   <si>
     <t>SFX_TankCannonShot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitSound</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX_ElectircField</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX_MineExplosion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX_BossJump</t>
+  </si>
+  <si>
+    <t>SFX_BossJumpAttack</t>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1215,81 +1234,84 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A16" sqref="A16"/>
-      <selection pane="topRight" activeCell="O24" sqref="O24"/>
+      <selection pane="topRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="7" max="13" width="21.88671875" customWidth="1"/>
-    <col min="14" max="14" width="24.88671875" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" customWidth="1"/>
-    <col min="17" max="17" width="22.5546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="7" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="15" max="16" width="23.28515625" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1297,13 +1319,13 @@
         <v>1001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1333,28 +1355,31 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>1002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1384,28 +1409,31 @@
         <v>2</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>1003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1435,28 +1463,31 @@
         <v>3</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>1004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1486,28 +1517,31 @@
         <v>4</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>1005</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -1537,28 +1571,31 @@
         <v>5</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>1011</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1588,28 +1625,31 @@
         <v>1</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>1012</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1639,28 +1679,31 @@
         <v>2</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>1013</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1690,28 +1733,31 @@
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>1014</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1741,28 +1787,31 @@
         <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>1015</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
@@ -1792,28 +1841,31 @@
         <v>5</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3">
         <v>1021</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1843,28 +1895,31 @@
         <v>1</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3">
         <v>1022</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1894,28 +1949,31 @@
         <v>2</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3">
         <v>1023</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1945,28 +2003,31 @@
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3">
         <v>1024</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1996,28 +2057,31 @@
         <v>4</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5">
         <v>1025</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -2047,28 +2111,31 @@
         <v>5</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3">
         <v>1031</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
@@ -2098,30 +2165,33 @@
         <v>1</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
         <v>1032</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4">
         <v>5</v>
@@ -2151,30 +2221,33 @@
         <v>2</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>1033</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="4">
         <v>5</v>
@@ -2204,30 +2277,33 @@
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
         <v>1034</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="4">
         <v>5</v>
@@ -2257,30 +2333,33 @@
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5">
         <v>1035</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="6">
         <v>5</v>
@@ -2310,24 +2389,27 @@
         <v>5</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>2001</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -2359,19 +2441,22 @@
         <v>1</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
         <v>2002</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -2403,19 +2488,22 @@
         <v>1</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3">
         <v>3001</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -2447,19 +2535,22 @@
         <v>1</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
         <v>4001</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -2491,19 +2582,22 @@
         <v>1</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3">
         <v>4002</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -2535,9 +2629,12 @@
         <v>1</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2553,533 +2650,533 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>10001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="3">
         <v>0.2</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>10002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3">
         <v>0.4</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>10003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="3">
         <v>0.6</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>10004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="3">
         <v>0.8</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7">
         <v>10005</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>10011</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3">
         <v>0.2</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3">
         <v>10012</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3">
         <v>0.4</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>10013</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3">
         <v>0.6</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>10014</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3">
         <v>0.8</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7">
         <v>10015</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3">
         <v>10021</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3">
         <v>0.2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3">
         <v>10022</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3">
         <v>0.4</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3">
         <v>10023</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3">
         <v>0.6</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3">
         <v>10024</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3">
         <v>0.8</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="7">
         <v>10025</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3">
         <v>10031</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="E17" s="3">
         <v>0.2</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3">
         <v>10032</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="3">
         <v>0.4</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3">
         <v>10033</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="3">
         <v>0.6</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>10034</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="3">
         <v>0.8</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7">
         <v>10035</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
         <v>10041</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="E22" s="3">
         <v>0.2</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3">
         <v>10042</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="3">
         <v>0.4</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3">
         <v>10043</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="3">
         <v>0.6</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3">
         <v>10044</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="3">
         <v>0.8</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="7">
         <v>10045</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
